--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillInfoDataSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillInfoDataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>skillName</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>firstAid</t>
+  </si>
+  <si>
+    <t>bless</t>
   </si>
 </sst>
 </file>
@@ -1079,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1198,23 +1201,43 @@
         <v>26</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A4 A6:A1048576 C1:C1048576">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A4 A7:A1048576 C1:C5 C7:C1048576 A6 C6">
       <formula1>2</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B6:B1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B4 B7:B1048576 B6">
       <formula1>1</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D5 D7:D1048576 D6">
       <formula1>"None, Passive, Active, buff"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E5 E7:E1048576 E6">
       <formula1>"None, OnlyTarget, Bounded"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F5 F7:F1048576 F6">
       <formula1>"self, cursor"</formula1>
     </dataValidation>
   </dataValidations>

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillInfoDataSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillInfoDataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1218,7 +1218,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillInfoDataSheet.xlsx
+++ b/URPRagProjectSingle/Assets/Characters/Skills/DataSheet/SkillInfoDataSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.208.51986"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="560" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>skillName</t>
   </si>
@@ -118,6 +118,39 @@
   </si>
   <si>
     <t>bless</t>
+  </si>
+  <si>
+    <t>flavorText</t>
+  </si>
+  <si>
+    <t>즉시 치료합니다</t>
+  </si>
+  <si>
+    <t>배쉬</t>
+  </si>
+  <si>
+    <t>잠시 집중 후 빠르게 내려칩니다</t>
+  </si>
+  <si>
+    <t>잠시 집중 후 적을 빠르게 내려칩니다</t>
+  </si>
+  <si>
+    <t>잠깐의 준비동작 후 적을 빠르게 내려칩니다.</t>
+  </si>
+  <si>
+    <t>땅의 진동을 이용해 주변의 적을 공격합니다</t>
+  </si>
+  <si>
+    <t>힘,손재주,행운을 증가시킵니다</t>
+  </si>
+  <si>
+    <t>일정시간 힘,손재주,행운을 증가시킵니다</t>
+  </si>
+  <si>
+    <t>일정시간 힘,손재주,행운을 증가시킵니다.</t>
+  </si>
+  <si>
+    <t>땅의 진동을 이용해 주변의 적을 공격합니다.</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1118,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -1096,12 +1129,13 @@
     <col min="4" max="4" style="3" width="12.00500011" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="2" width="13.63000011" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" style="3" width="11.88000011" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="25" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="4" width="41.13000107" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="25" style="4" width="9.00500011" customWidth="1" outlineLevel="0"/>
     <col min="26" max="26" style="6" width="9.00500011" customWidth="1" outlineLevel="0"/>
     <col min="27" max="16384" style="3" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1120,8 +1154,11 @@
       <c r="F1" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
@@ -1140,8 +1177,11 @@
       <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1161,7 +1201,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -1180,8 +1220,11 @@
       <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -1200,8 +1243,11 @@
       <c r="F5" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -1219,6 +1265,9 @@
       </c>
       <c r="F6" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
